--- a/absensi.xlsx
+++ b/absensi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,72 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ID004</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Budi Santoso</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>XII IPS 1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-07-11 15:19:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ID004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Budi Santoso</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>XII IPS 1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-07-11 15:19:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ID005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Intan Ayu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>XI IPA 2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-07-11 15:23:15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
